--- a/psnr/psnrs.xlsx
+++ b/psnr/psnrs.xlsx
@@ -12,14 +12,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
   </bookViews>
   <sheets>
-    <sheet name="psnrs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="psnrs" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
+  <pivotCaches>
+    <pivotCache cacheId="6" r:id="rId3"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="16">
   <si>
     <t>Algorithm</t>
   </si>
@@ -55,6 +59,18 @@
   </si>
   <si>
     <t>peppers_gray</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Max of PSNR</t>
   </si>
 </sst>
 </file>
@@ -538,8 +554,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -596,6 +617,565 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="James Cooper" refreshedDate="43399.395524652777" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="60">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E61" sheet="psnrs"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Algorithm" numFmtId="0">
+      <sharedItems count="3">
+        <s v="Naive"/>
+        <s v="Braunl"/>
+        <s v="CML"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Image" numFmtId="0">
+      <sharedItems count="4">
+        <s v="very small"/>
+        <s v="small"/>
+        <s v="medium"/>
+        <s v="peppers_gray"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="WindowSize" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="3" maxValue="11" count="5">
+        <n v="3"/>
+        <n v="5"/>
+        <n v="7"/>
+        <n v="9"/>
+        <n v="11"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="PSNR" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="13.55" maxValue="37.83"/>
+    </cacheField>
+    <cacheField name="ElapsedTime" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="86"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="60">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="27.03"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="20.78"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="25.98"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="21.74"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="17.82"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <n v="21.85"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="18.55"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="15.65"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <n v="18.62"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="16.39"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="14.36"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <n v="16.399999999999999"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="15.02"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="13.55"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="4"/>
+    <n v="14.99"/>
+    <n v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="37.83"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="32.83"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <n v="36.619999999999997"/>
+    <n v="13"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="34.31"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="32.340000000000003"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="34.25"/>
+    <n v="11"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="32.700000000000003"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="30.74"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="32.659999999999997"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="31.65"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="29.73"/>
+    <n v="12"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <n v="31.57"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="30.81"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="28.94"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="4"/>
+    <n v="30.71"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="37.159999999999997"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="32.979999999999997"/>
+    <n v="46"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <n v="36.72"/>
+    <n v="75"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="34.07"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="32.65"/>
+    <n v="69"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="34.15"/>
+    <n v="52"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32.96"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="31.59"/>
+    <n v="66"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="32.979999999999997"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="32.26"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="30.91"/>
+    <n v="68"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="32.26"/>
+    <n v="59"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="31.73"/>
+    <n v="86"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="30.36"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="31.73"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="32.79"/>
+    <n v="24"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="28.76"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="31.85"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.25"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="27.35"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="31.07"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="29.87"/>
+    <n v="28"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="25.27"/>
+    <n v="10"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="29.8"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="28.63"/>
+    <n v="8"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="23.94"/>
+    <n v="42"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="28.56"/>
+    <n v="9"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="27.5"/>
+    <n v="7"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="22.82"/>
+    <n v="14"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="27.42"/>
+    <n v="10"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="2"/>
+  </colFields>
+  <colItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Max of PSNR" fld="3" subtotal="max" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,11 +1441,161 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="6" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>5</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>9</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="C5" s="1">
+        <v>32.65</v>
+      </c>
+      <c r="D5" s="1">
+        <v>31.59</v>
+      </c>
+      <c r="E5" s="1">
+        <v>30.91</v>
+      </c>
+      <c r="F5" s="1">
+        <v>30.36</v>
+      </c>
+      <c r="G5" s="1">
+        <v>32.979999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1">
+        <v>36.72</v>
+      </c>
+      <c r="C6" s="1">
+        <v>34.15</v>
+      </c>
+      <c r="D6" s="1">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="E6" s="1">
+        <v>32.26</v>
+      </c>
+      <c r="F6" s="1">
+        <v>31.73</v>
+      </c>
+      <c r="G6" s="1">
+        <v>36.72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="C7" s="1">
+        <v>34.07</v>
+      </c>
+      <c r="D7" s="1">
+        <v>32.96</v>
+      </c>
+      <c r="E7" s="1">
+        <v>32.26</v>
+      </c>
+      <c r="F7" s="1">
+        <v>31.73</v>
+      </c>
+      <c r="G7" s="1">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1">
+        <v>37.159999999999997</v>
+      </c>
+      <c r="C8" s="1">
+        <v>34.15</v>
+      </c>
+      <c r="D8" s="1">
+        <v>32.979999999999997</v>
+      </c>
+      <c r="E8" s="1">
+        <v>32.26</v>
+      </c>
+      <c r="F8" s="1">
+        <v>31.73</v>
+      </c>
+      <c r="G8" s="1">
+        <v>37.159999999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
+    <sheetView topLeftCell="A40" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>

--- a/psnr/psnrs.xlsx
+++ b/psnr/psnrs.xlsx
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="0"/>
   <pivotCaches>
-    <pivotCache cacheId="6" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -606,7 +606,50 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1090,7 +1133,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:G8" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -1164,11 +1207,108 @@
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="1" item="0" hier="-1"/>
+    <pageField fld="1" item="3" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Max of PSNR" fld="3" subtotal="max" baseField="0" baseItem="0"/>
+    <dataField name="Max of PSNR" fld="3" subtotal="max" baseField="0" baseItem="2"/>
   </dataFields>
+  <conditionalFormats count="5">
+    <conditionalFormat priority="5">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="3">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="4">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="3">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="1"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="3">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="3">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="2"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="2">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="3">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="3"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+    <conditionalFormat priority="1">
+      <pivotAreas count="1">
+        <pivotArea type="data" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+          <references count="3">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="0" count="3">
+              <x v="0"/>
+              <x v="1"/>
+              <x v="2"/>
+            </reference>
+            <reference field="2" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </pivotAreas>
+    </conditionalFormat>
+  </conditionalFormats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
@@ -1444,14 +1584,14 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="F5" sqref="F5:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="6" customWidth="1"/>
+    <col min="3" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1460,7 +1600,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1499,22 +1639,22 @@
         <v>7</v>
       </c>
       <c r="B5" s="1">
-        <v>32.979999999999997</v>
+        <v>20.78</v>
       </c>
       <c r="C5" s="1">
-        <v>32.65</v>
+        <v>17.82</v>
       </c>
       <c r="D5" s="1">
-        <v>31.59</v>
+        <v>15.65</v>
       </c>
       <c r="E5" s="1">
-        <v>30.91</v>
+        <v>14.36</v>
       </c>
       <c r="F5" s="1">
-        <v>30.36</v>
+        <v>13.55</v>
       </c>
       <c r="G5" s="1">
-        <v>32.979999999999997</v>
+        <v>20.78</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1522,22 +1662,22 @@
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>36.72</v>
+        <v>25.98</v>
       </c>
       <c r="C6" s="1">
-        <v>34.15</v>
+        <v>21.85</v>
       </c>
       <c r="D6" s="1">
-        <v>32.979999999999997</v>
+        <v>18.62</v>
       </c>
       <c r="E6" s="1">
-        <v>32.26</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F6" s="1">
-        <v>31.73</v>
+        <v>14.99</v>
       </c>
       <c r="G6" s="1">
-        <v>36.72</v>
+        <v>25.98</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1545,22 +1685,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>37.159999999999997</v>
+        <v>27.03</v>
       </c>
       <c r="C7" s="1">
-        <v>34.07</v>
+        <v>21.74</v>
       </c>
       <c r="D7" s="1">
-        <v>32.96</v>
+        <v>18.55</v>
       </c>
       <c r="E7" s="1">
-        <v>32.26</v>
+        <v>16.39</v>
       </c>
       <c r="F7" s="1">
-        <v>31.73</v>
+        <v>15.02</v>
       </c>
       <c r="G7" s="1">
-        <v>37.159999999999997</v>
+        <v>27.03</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -1568,26 +1708,52 @@
         <v>13</v>
       </c>
       <c r="B8" s="1">
-        <v>37.159999999999997</v>
+        <v>27.03</v>
       </c>
       <c r="C8" s="1">
-        <v>34.15</v>
+        <v>21.85</v>
       </c>
       <c r="D8" s="1">
-        <v>32.979999999999997</v>
+        <v>18.62</v>
       </c>
       <c r="E8" s="1">
-        <v>32.26</v>
+        <v>16.399999999999999</v>
       </c>
       <c r="F8" s="1">
-        <v>31.73</v>
+        <v>15.02</v>
       </c>
       <c r="G8" s="1">
-        <v>37.159999999999997</v>
+        <v>27.03</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting pivot="1" sqref="B5:B7">
+    <cfRule type="expression" dxfId="5" priority="5">
+      <formula>$B5=MAX($B$5:$B$7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="C5:C7">
+    <cfRule type="expression" dxfId="4" priority="4">
+      <formula>C5=MAX(C5:C7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="D5:D7">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>D5=MAX(D5:D7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="E5:E7">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>E5=MAX(E5:E7)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting pivot="1" sqref="F5:F7">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>F5=MAX(F5:F7)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1595,7 +1761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
